--- a/news_org_counts.xlsx
+++ b/news_org_counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushuowang/Desktop/1Columbia/Data Journalism/Data Studio/Data-driven Pitches/Pulitzer Prize/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushuowang/Desktop/1Columbia/Data Journalism/Data Studio/Data-driven Pitches/Pulizer Prize New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{172CC8D7-239E-7F47-99AC-71AF0D7E4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED510EA-6488-124C-A6A2-E7F3BA96A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2140" windowWidth="30240" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>News Organization</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>The Miami Herald</t>
+  </si>
+  <si>
+    <t>Chicago Daily News</t>
+  </si>
+  <si>
+    <t>New York Herald Tribune</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="251" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -508,18 +514,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -564,7 +570,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -572,23 +578,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -596,7 +602,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -604,7 +610,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -612,7 +618,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -620,7 +626,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -628,7 +634,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -636,7 +642,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -644,7 +650,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -652,7 +658,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -660,7 +666,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -668,7 +674,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -676,7 +682,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -684,7 +690,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -692,7 +698,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -700,13 +706,32 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+    <sortCondition descending="1" ref="B1:B30"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>